--- a/mmo_excel/xlsx/errcode.xlsx
+++ b/mmo_excel/xlsx/errcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF7C3A-C7C3-47AA-97AC-C487136D6DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB5D18A-07B1-41D7-B8D1-6BF08BFFADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1335" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>昵称长度需在5-15位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗模式切换 cd 中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,6 +564,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10030</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mmo_excel/xlsx/errcode.xlsx
+++ b/mmo_excel/xlsx/errcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB5D18A-07B1-41D7-B8D1-6BF08BFFADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F4D55-4BF8-459B-B96F-EBE9B29C17BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="1245" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>战斗模式切换 cd 中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前正在匹配中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -572,6 +576,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10040</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
